--- a/biology/Histoire de la zoologie et de la botanique/Dudley_Moulton/Dudley_Moulton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dudley_Moulton/Dudley_Moulton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dudley Moulton est un entomologiste américain, né le 28 décembre 1878 et mort le 5 juillet 1951.
 Il obtient son Bachelor of Arts à l’université Stanford en 1903 et son Master of Arts dans cette même institution en 1906. De 1904 à 1906, il est entomologiste pour le comté de Santa Clara, puis travaille, de 1909 à 1915, à la commission d’horticulture de l’État (où il a notamment en charge l’application des mesures de quarantaine en vigueur dans le port de San Francisco). De 1931 à 1933, il est directeur au sein du ministère de l’Agriculture de l’État de Californie.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul H. Arnaud Jr et Vincent F. Lee (1973), Types of thysanoptera in the collection of the California Academy of Sciences. Occasional Papers of the California Academy of Sciences, 105 : 1-138.
  Portail de l’histoire de la zoologie et de la botanique   Portail des États-Unis   Portail de l’entomologie   Portail de la zoologie                  </t>
